--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.03120405772265</v>
+        <v>89.86564076574028</v>
       </c>
       <c r="D2" t="n">
-        <v>2.334970798130202</v>
+        <v>2.335957134039309</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.99988781041935</v>
+        <v>88.80944789615504</v>
       </c>
       <c r="D3" t="n">
-        <v>2.435666181758293</v>
+        <v>2.688296899549741</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.18841463008266</v>
+        <v>88.35503413926307</v>
       </c>
       <c r="D4" t="n">
-        <v>2.412564725253649</v>
+        <v>2.481534438843848</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.06887091166627</v>
+        <v>86.3507498249033</v>
       </c>
       <c r="D5" t="n">
-        <v>2.482577022680977</v>
+        <v>2.634006996977364</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.43586082396725</v>
+        <v>86.29502299505097</v>
       </c>
       <c r="D6" t="n">
-        <v>2.528574197632205</v>
+        <v>2.765446691832109</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.20488687535784</v>
+        <v>84.5565103464977</v>
       </c>
       <c r="D7" t="n">
-        <v>2.406715454381613</v>
+        <v>2.809948480501796</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0498843535011</v>
+        <v>84.37507577884232</v>
       </c>
       <c r="D8" t="n">
-        <v>2.169327995134933</v>
+        <v>2.592535836246819</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.91989290283371</v>
+        <v>83.20088955524618</v>
       </c>
       <c r="D9" t="n">
-        <v>2.317412994746806</v>
+        <v>2.458956359716499</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.11115847789969</v>
+        <v>82.04248493687658</v>
       </c>
       <c r="D10" t="n">
-        <v>2.752463743543061</v>
+        <v>2.581029563069156</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.16220288740044</v>
+        <v>80.52106745874204</v>
       </c>
       <c r="D11" t="n">
-        <v>2.3847328109818</v>
+        <v>2.395693340815667</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.00109568582789</v>
+        <v>80.49980249790703</v>
       </c>
       <c r="D12" t="n">
-        <v>2.733250406357979</v>
+        <v>2.415873567206178</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.94009561933299</v>
+        <v>78.37673676384101</v>
       </c>
       <c r="D13" t="n">
-        <v>2.909567626330583</v>
+        <v>2.505313485937241</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.03819820304197</v>
+        <v>77.88337914724114</v>
       </c>
       <c r="D14" t="n">
-        <v>2.45133787194435</v>
+        <v>2.49562381920001</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.81537216082481</v>
+        <v>76.87098373950096</v>
       </c>
       <c r="D15" t="n">
-        <v>3.066613628713743</v>
+        <v>2.85374419465687</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.32470424871349</v>
+        <v>75.94750904167883</v>
       </c>
       <c r="D16" t="n">
-        <v>2.799644269463771</v>
+        <v>2.7374432601883</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.55959999371568</v>
+        <v>74.81162125297421</v>
       </c>
       <c r="D17" t="n">
-        <v>2.273201773940597</v>
+        <v>2.834337406758763</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.2487536694871</v>
+        <v>73.87284142110241</v>
       </c>
       <c r="D18" t="n">
-        <v>3.207702751115067</v>
+        <v>3.100311512810491</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.5715850832309</v>
+        <v>73.24412812774749</v>
       </c>
       <c r="D19" t="n">
-        <v>2.819895475250009</v>
+        <v>2.505501483486841</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.42380880353463</v>
+        <v>72.0851552939143</v>
       </c>
       <c r="D20" t="n">
-        <v>2.947088515232956</v>
+        <v>2.625071693345193</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.7547944289837</v>
+        <v>70.99175533038432</v>
       </c>
       <c r="D21" t="n">
-        <v>2.358341493846787</v>
+        <v>2.465343232560995</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.72068486193905</v>
+        <v>69.95890244731773</v>
       </c>
       <c r="D22" t="n">
-        <v>2.926367287378347</v>
+        <v>2.5548460546036</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.54058920130052</v>
+        <v>69.11415399486323</v>
       </c>
       <c r="D23" t="n">
-        <v>2.746411147847208</v>
+        <v>2.849004913826639</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.31538947319765</v>
+        <v>68.23121973926062</v>
       </c>
       <c r="D24" t="n">
-        <v>2.872570083121731</v>
+        <v>2.72120018240939</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.19970751426091</v>
+        <v>66.57088786030721</v>
       </c>
       <c r="D25" t="n">
-        <v>2.788328577520979</v>
+        <v>2.495099606511594</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.45867244131877</v>
+        <v>65.83552221601136</v>
       </c>
       <c r="D26" t="n">
-        <v>3.314805805767272</v>
+        <v>2.612276557231689</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.16647200456313</v>
+        <v>65.20667063154571</v>
       </c>
       <c r="D27" t="n">
-        <v>2.976949247966321</v>
+        <v>3.141233109058855</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.88771648803266</v>
+        <v>63.67734306787154</v>
       </c>
       <c r="D28" t="n">
-        <v>2.405743987954492</v>
+        <v>2.976595636962495</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.01223747238851</v>
+        <v>63.0978978813397</v>
       </c>
       <c r="D29" t="n">
-        <v>2.682658035257222</v>
+        <v>3.057942359404342</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.33818925006404</v>
+        <v>62.18118925460128</v>
       </c>
       <c r="D30" t="n">
-        <v>2.829715601907191</v>
+        <v>2.707171129263009</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.39960499081209</v>
+        <v>60.51275979935359</v>
       </c>
       <c r="D31" t="n">
-        <v>2.743554508664908</v>
+        <v>2.965699370688765</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.88126842414466</v>
+        <v>59.98029862739922</v>
       </c>
       <c r="D32" t="n">
-        <v>2.957376252692712</v>
+        <v>2.742680963818149</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.97785608214788</v>
+        <v>58.7123504348208</v>
       </c>
       <c r="D33" t="n">
-        <v>2.926985261231926</v>
+        <v>3.049182386588153</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.88596469803312</v>
+        <v>57.92557343237993</v>
       </c>
       <c r="D34" t="n">
-        <v>3.057364616152681</v>
+        <v>3.352613753876763</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.51678431959261</v>
+        <v>57.4966156492522</v>
       </c>
       <c r="D35" t="n">
-        <v>2.663427100313481</v>
+        <v>2.973499151688938</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.01598688106822</v>
+        <v>56.07795498595095</v>
       </c>
       <c r="D36" t="n">
-        <v>3.067413945568431</v>
+        <v>2.938749810714717</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.24748960132066</v>
+        <v>55.16922164166321</v>
       </c>
       <c r="D37" t="n">
-        <v>3.071324783976092</v>
+        <v>2.887787300604949</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.11140276900038</v>
+        <v>53.95223968750501</v>
       </c>
       <c r="D38" t="n">
-        <v>2.814918029831318</v>
+        <v>2.6925660628365</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.97059119848331</v>
+        <v>52.95009210341141</v>
       </c>
       <c r="D39" t="n">
-        <v>2.74800604562069</v>
+        <v>2.949596753625528</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.56169769239196</v>
+        <v>51.66356248015316</v>
       </c>
       <c r="D40" t="n">
-        <v>2.989030744538934</v>
+        <v>3.377235893774895</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.03498687507157</v>
+        <v>51.5050635194179</v>
       </c>
       <c r="D41" t="n">
-        <v>3.241766468591569</v>
+        <v>3.385524978430614</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.50307567526095</v>
+        <v>49.52406478324932</v>
       </c>
       <c r="D42" t="n">
-        <v>3.262700517508091</v>
+        <v>3.176081888821493</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.26167988862977</v>
+        <v>48.97941073519155</v>
       </c>
       <c r="D43" t="n">
-        <v>2.967664946466477</v>
+        <v>2.852916405608363</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.5207026359665</v>
+        <v>47.78447774516852</v>
       </c>
       <c r="D44" t="n">
-        <v>3.00879255849267</v>
+        <v>2.996916327059933</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.54687975445812</v>
+        <v>47.26794772736487</v>
       </c>
       <c r="D45" t="n">
-        <v>3.156661137857094</v>
+        <v>3.413178380084984</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.57391556233363</v>
+        <v>46.16555615045409</v>
       </c>
       <c r="D46" t="n">
-        <v>3.384626779558618</v>
+        <v>3.242877500521367</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.00960899689084</v>
+        <v>44.88716108448484</v>
       </c>
       <c r="D47" t="n">
-        <v>3.215665101639823</v>
+        <v>3.614513253475338</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.20274008442369</v>
+        <v>43.47134145387623</v>
       </c>
       <c r="D48" t="n">
-        <v>3.342330405395046</v>
+        <v>3.41444338675184</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.6894180246554</v>
+        <v>43.17037735784237</v>
       </c>
       <c r="D49" t="n">
-        <v>2.965696324917032</v>
+        <v>3.500864755657259</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.43636363485763</v>
+        <v>42.09679284061423</v>
       </c>
       <c r="D50" t="n">
-        <v>3.240447867103808</v>
+        <v>3.342602170228709</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.13142636987347</v>
+        <v>41.84658951643929</v>
       </c>
       <c r="D51" t="n">
-        <v>3.351041259029652</v>
+        <v>3.271484601522537</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98498943247065</v>
+        <v>40.04259885655654</v>
       </c>
       <c r="D52" t="n">
-        <v>3.187858425904187</v>
+        <v>4.184399814011571</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.82795970548622</v>
+        <v>38.96348248020084</v>
       </c>
       <c r="D53" t="n">
-        <v>3.278567152674165</v>
+        <v>3.410748027594008</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.66401302188313</v>
+        <v>38.15992612167133</v>
       </c>
       <c r="D54" t="n">
-        <v>3.857093728095353</v>
+        <v>3.177058466742539</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.14349960986141</v>
+        <v>36.94977783746745</v>
       </c>
       <c r="D55" t="n">
-        <v>3.338789216363683</v>
+        <v>3.537545327496209</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.10671228610533</v>
+        <v>35.70325283780597</v>
       </c>
       <c r="D56" t="n">
-        <v>3.508786807188628</v>
+        <v>3.358465045966778</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.67819890291</v>
+        <v>35.01335182114989</v>
       </c>
       <c r="D57" t="n">
-        <v>2.774572711684461</v>
+        <v>3.297570596308412</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.72460661159314</v>
+        <v>34.29570970479482</v>
       </c>
       <c r="D58" t="n">
-        <v>3.58090643028422</v>
+        <v>3.220309996024933</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.85726807519052</v>
+        <v>33.40186747898845</v>
       </c>
       <c r="D59" t="n">
-        <v>3.426765786162008</v>
+        <v>3.355289738177072</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.80538963298441</v>
+        <v>32.78864181194876</v>
       </c>
       <c r="D60" t="n">
-        <v>2.810662948292701</v>
+        <v>3.857780402888105</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.37783618096019</v>
+        <v>30.94842018424438</v>
       </c>
       <c r="D61" t="n">
-        <v>3.508559826608014</v>
+        <v>3.640688680080942</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.20160167807666</v>
+        <v>29.85791295736567</v>
       </c>
       <c r="D62" t="n">
-        <v>3.204469300060369</v>
+        <v>3.303238085945898</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.71405132772443</v>
+        <v>29.52455973587965</v>
       </c>
       <c r="D63" t="n">
-        <v>3.229124096670593</v>
+        <v>3.427428810362442</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.52983213916466</v>
+        <v>28.18762066143956</v>
       </c>
       <c r="D64" t="n">
-        <v>3.328554036892521</v>
+        <v>3.469759535382362</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.92554458942665</v>
+        <v>27.28618226234823</v>
       </c>
       <c r="D65" t="n">
-        <v>3.802629342558362</v>
+        <v>3.64844455979594</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.76554197200322</v>
+        <v>25.00055454344653</v>
       </c>
       <c r="D66" t="n">
-        <v>3.555586572963395</v>
+        <v>3.397633825010922</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.0896963530143</v>
+        <v>25.19905385699301</v>
       </c>
       <c r="D67" t="n">
-        <v>3.314986165853477</v>
+        <v>3.500298807257635</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.17921827522522</v>
+        <v>23.5451121038984</v>
       </c>
       <c r="D68" t="n">
-        <v>3.823180821537062</v>
+        <v>3.772751840277898</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.53094689729349</v>
+        <v>23.19185530380496</v>
       </c>
       <c r="D69" t="n">
-        <v>3.718576244228604</v>
+        <v>3.571312767666433</v>
       </c>
     </row>
   </sheetData>
